--- a/hans/OcrmCustomEntity.xlsx
+++ b/hans/OcrmCustomEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="1036">
   <si>
     <t>_id</t>
   </si>
@@ -279,7 +279,7 @@
     <t>1678118642806</t>
   </si>
   <si>
-    <t>33513.71</t>
+    <t>33497.72</t>
   </si>
   <si>
     <t>香港汇丰/USD/Mandarine/801-443300-838</t>
@@ -438,7 +438,7 @@
     <t>1678120741216</t>
   </si>
   <si>
-    <t>6273060.03</t>
+    <t>6381452.42</t>
   </si>
   <si>
     <t>吴总股东往来/RMB</t>
@@ -501,7 +501,7 @@
     <t>Yss</t>
   </si>
   <si>
-    <t>-61995.26</t>
+    <t>-61995.93</t>
   </si>
   <si>
     <t>大华银行/USD/Group/392-9016-945</t>
@@ -537,7 +537,7 @@
     <t>1678780218852</t>
   </si>
   <si>
-    <t>1257</t>
+    <t>1257.04</t>
   </si>
   <si>
     <t>工行社保户/RMB/-上海信智船务有限公司、1001293529350655623</t>
@@ -3114,6 +3114,22 @@
 SWIFT CODE: HSBCSGSG
 BANK NAME: HSBC LTD
 BANK ADDRESS:  50 RAFFLES PLACE, #01-03, SINGAPORE LAND TOWER, SINGAPORE 048623</t>
+  </si>
+  <si>
+    <t>1685935720684</t>
+  </si>
+  <si>
+    <t>RIZHAO UNIVERSE INTERNATIONAL LOGISTICS CO.,LTD/日照物源国际物流有限公司</t>
+  </si>
+  <si>
+    <t>1685936374998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATANA KIMYA LIMITED SIRKET </t>
+  </si>
+  <si>
+    <t>TURKMENHIMIYA LLC
+ACCOUNT:  AE150910000016560000025</t>
   </si>
 </sst>
 </file>
@@ -3157,7 +3173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L386"/>
+  <dimension ref="A1:L388"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -15764,6 +15780,73 @@
         <v>17</v>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>993</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C387" t="s">
+        <v>188</v>
+      </c>
+      <c r="E387" t="s">
+        <v>15</v>
+      </c>
+      <c r="F387" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G387" t="s">
+        <v>805</v>
+      </c>
+      <c r="I387" t="s">
+        <v>15</v>
+      </c>
+      <c r="J387" t="s">
+        <v>18</v>
+      </c>
+      <c r="K387" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L387" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>996</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C388" t="s">
+        <v>204</v>
+      </c>
+      <c r="E388" t="s">
+        <v>15</v>
+      </c>
+      <c r="F388" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G388" t="s">
+        <v>808</v>
+      </c>
+      <c r="H388" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I388" t="s">
+        <v>15</v>
+      </c>
+      <c r="J388" t="s">
+        <v>18</v>
+      </c>
+      <c r="K388" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L388" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/hans/OcrmCustomEntity.xlsx
+++ b/hans/OcrmCustomEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4185" uniqueCount="971">
   <si>
     <t>_id</t>
   </si>
@@ -831,13 +831,13 @@
     <t>USD</t>
   </si>
   <si>
-    <t>-886596.23</t>
+    <t>-832034.73</t>
   </si>
   <si>
     <t>香港汇丰/USD/Mandarine/801-443300-838</t>
   </si>
   <si>
-    <t>300999</t>
+    <t>300999.58</t>
   </si>
   <si>
     <t>104</t>
@@ -849,7 +849,7 @@
     <t>SGD</t>
   </si>
   <si>
-    <t>-71797.54</t>
+    <t>-199436.87</t>
   </si>
   <si>
     <t>香港汇丰/SGD/Mandarine/801-443300-838</t>
@@ -894,13 +894,13 @@
     <t>1678120629420</t>
   </si>
   <si>
-    <t>631511.46</t>
+    <t>493718.73</t>
   </si>
   <si>
     <t>香港花旗/USD/Hope Young/91868394</t>
   </si>
   <si>
-    <t>441600</t>
+    <t>441600.8</t>
   </si>
   <si>
     <t>108</t>
@@ -909,7 +909,7 @@
     <t>1678120641490</t>
   </si>
   <si>
-    <t>-1406552.32</t>
+    <t>-4127298.12</t>
   </si>
   <si>
     <t>上海汇丰/USD/Mandarine/095-046264-055</t>
@@ -924,7 +924,7 @@
     <t>1678120656545</t>
   </si>
   <si>
-    <t>-25213.72</t>
+    <t>-83583.2</t>
   </si>
   <si>
     <t>上海汇丰/USD/Asia-Euro/095-046215-055</t>
@@ -939,7 +939,7 @@
     <t>1678120670580</t>
   </si>
   <si>
-    <t>-130071.78</t>
+    <t>-1726467.16</t>
   </si>
   <si>
     <t>上海汇丰/USD/Monica/095-046207-055</t>
@@ -957,7 +957,7 @@
     <t>RMB</t>
   </si>
   <si>
-    <t>-5962117.34</t>
+    <t>-18453792.05</t>
   </si>
   <si>
     <t>平安银行/RMB/-上海信智船务有限公司/15000105781743</t>
@@ -981,7 +981,7 @@
     <t>1678120725598</t>
   </si>
   <si>
-    <t>-136465.6</t>
+    <t>-432226</t>
   </si>
   <si>
     <t>浦发银行/RMB/-厦门曜升海运有限公司/36080078801000000000</t>
@@ -996,7 +996,7 @@
     <t>1678120741216</t>
   </si>
   <si>
-    <t>109032351.75</t>
+    <t>309698479.35</t>
   </si>
   <si>
     <t>吴总股东往来/RMB</t>
@@ -1011,7 +1011,7 @@
     <t>Yss</t>
   </si>
   <si>
-    <t>-1098883.08</t>
+    <t>-3620388.21</t>
   </si>
   <si>
     <t>大华银行/USD/Group/392-9016-945</t>
@@ -1038,7 +1038,7 @@
     <t>1678780218852</t>
   </si>
   <si>
-    <t>-32907.58</t>
+    <t>-106915.8</t>
   </si>
   <si>
     <t>工行社保户/RMB/-上海信智船务有限公司、1001293529350655623</t>
@@ -1053,7 +1053,7 @@
     <t>1678780621735</t>
   </si>
   <si>
-    <t>-513538.19</t>
+    <t>-513545.19</t>
   </si>
   <si>
     <t>兴业银行/RMB/-上海信智船务有限公司/216460100100065938</t>
@@ -2502,15 +2502,6 @@
     <t>DALIAN HAI HENG SHIP ENGINEERING CO.,LTD/大连海恒船舶工程有限公司</t>
   </si>
   <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>1686841933102</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>357</t>
   </si>
   <si>
@@ -2610,7 +2601,7 @@
     <t>1686880486819</t>
   </si>
   <si>
-    <t>NANTONG ZHONGXIN SHIPPING ENGINEERING LlMITED/南通众信船务工程有限公司</t>
+    <t>NANTONG ZHONGXIN SHIPPING ENGINEERING LIMITED/南通众信船务工程有限公司</t>
   </si>
   <si>
     <t>368</t>
@@ -2629,6 +2620,317 @@
   </si>
   <si>
     <t>Beacon Marine Consultant Co.,Ltd./大连喜航海事咨询有限公司</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>1687251500994</t>
+  </si>
+  <si>
+    <t>STC MARINE ENGINEERING LIMITED/希普泰克船务工程有限公司</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>1687252568825</t>
+  </si>
+  <si>
+    <t>LO2208</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>1687318453722</t>
+  </si>
+  <si>
+    <t>TIANJIN IMPA SHIPPING CO.,LTD / 天津茵帕航运有限公司</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>1687319592462</t>
+  </si>
+  <si>
+    <t>DALIAN LIANDA SHIPPING SUPPLY CO., L TD. / 大连联达船舶供应有限公司</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>1687321554099</t>
+  </si>
+  <si>
+    <t>Bogerd Martin (TianJin) Marine Equípment Co.,Ltd / 博格德马丁(天津)航海设备有限公司</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>1687750204696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EASTERN BULK SHIPPING PTE LTD </t>
+  </si>
+  <si>
+    <t>联系人	王阳辉
+联系方式	021-50671559  marshall@valueshipping.cc  chartering@valueshipping.cc
+公司地址	上海浦东源深路355号A座2205-2206</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>1687761533026</t>
+  </si>
+  <si>
+    <t>ORDESEN ENVIRONMENTAL INTERNATIONAL CO., LIMITED/欧德森环保国际有限公司</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>1687836099572</t>
+  </si>
+  <si>
+    <t>GUANGXI JET-TRANS INTERNATIONAL LOGISTICS CO., LTD./广西捷诚国际物流有限公司</t>
+  </si>
+  <si>
+    <t>联系人	MR. BAMBOO ZHAO/赵春竹
+联系方式	SHIPPING@JET-TRANS.NET/86-15978134913
+公司地址	ADD: 6TH FL, TOWER B, WANDAI FORTUNE PLAZA, 16TH, ZHONGHUA ROAD, FANGCHENGGANG CITY, GAUNGXI, CHINA/广西防城港市港口区中华路16号万代财富广场B座6楼
+常用账户	NAME OF BANK: CHINA CONSTRUCTION BANK GUANGXI BRANCH ;ACCOUNT NO.:4505 0165 9588 0000 0326</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>1687848079972</t>
+  </si>
+  <si>
+    <t>HUATAI SURVEYORS&amp;ADJUSTERS COMPANY SHANGHAI OFFICE/北京华泰保险公估有限公司</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>ATANA KIMYA LIMITED SIRKET</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>BEN LINE AGENCIES (SINGAPORE) PTE LTD</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>BLUE SPRING(SHANGHAI) TECHNOLOGY CO LTD</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>CAMPBELL JOHNSTON CLARK SINGAPORE LLP</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>CREST OCEAN MARINE COMPANY</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>G2 OCEAN</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>GOLDEN BRICKS SHIPPING PTE. LTD.</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>HONG YUAN (HONG KONG) SHIPPING LTD</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>Ince &amp; Co 英士律师行</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>KHIMJI RAMDAS SHIPPING LLC</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>MASTER OF MV DINA OCEAN</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>MV DAISY OCEAN船长</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>MV SOPHIA OCEAN/CAPTAIN</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>MV SOPHIA OCEAN/CHIEF ENGINEER</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>OCEANSMART MARINE PTE.LTD</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>OVAL SHIPPING AND LOGISTICS LTD</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>RIZHAO UNIVERSE INTERNATIONAL LOGISTICS CO.,LTD/日照物源国际物流有限公司</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>SEALITE SHIPPING CO LTD</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>SHANGHAI JINGPENG UNDERWATER ENGINEERING CO.,LTD/上海鲸鹏水下工程有限公司</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>VYMASS LTD</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>陈丕祥</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>嵇道广</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>李存林</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>刘铮</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>孟令锋</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>田中建</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>张金贺</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>张锡辉</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>赵光辉</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>1687850469773</t>
+  </si>
+  <si>
+    <t>MV CHRISTINA OCEAN/CAPTAIN</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>1687850479100</t>
+  </si>
+  <si>
+    <t>MV DINA OCEAN/CAPTAIN</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>1688006447145</t>
+  </si>
+  <si>
+    <t>MARINE DEPARTMENT, HKSAR/香港特别行政区海事处</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>1688019819259</t>
+  </si>
+  <si>
+    <t>陈文峰</t>
   </si>
 </sst>
 </file>
@@ -2672,7 +2974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L367"/>
+  <dimension ref="A1:L410"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -14225,16 +14527,19 @@
         <v>830</v>
       </c>
       <c r="C354" t="s">
-        <v>14</v>
+        <v>831</v>
       </c>
       <c r="E354" t="s">
         <v>15</v>
       </c>
       <c r="F354" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G354" t="s">
-        <v>469</v>
+        <v>473</v>
+      </c>
+      <c r="H354" t="s">
+        <v>743</v>
       </c>
       <c r="I354" t="s">
         <v>15</v>
@@ -14251,13 +14556,13 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B355" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C355" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="E355" t="s">
         <v>15</v>
@@ -14266,10 +14571,7 @@
         <v>835</v>
       </c>
       <c r="G355" t="s">
-        <v>473</v>
-      </c>
-      <c r="H355" t="s">
-        <v>743</v>
+        <v>477</v>
       </c>
       <c r="I355" t="s">
         <v>15</v>
@@ -14278,7 +14580,7 @@
         <v>18</v>
       </c>
       <c r="K355" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="L355" t="s">
         <v>17</v>
@@ -14301,7 +14603,7 @@
         <v>838</v>
       </c>
       <c r="G356" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="I356" t="s">
         <v>15</v>
@@ -14333,7 +14635,7 @@
         <v>841</v>
       </c>
       <c r="G357" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="I357" t="s">
         <v>15</v>
@@ -14365,7 +14667,7 @@
         <v>844</v>
       </c>
       <c r="G358" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="I358" t="s">
         <v>15</v>
@@ -14397,7 +14699,7 @@
         <v>847</v>
       </c>
       <c r="G359" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I359" t="s">
         <v>15</v>
@@ -14429,7 +14731,7 @@
         <v>850</v>
       </c>
       <c r="G360" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="I360" t="s">
         <v>15</v>
@@ -14461,7 +14763,7 @@
         <v>853</v>
       </c>
       <c r="G361" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="I361" t="s">
         <v>15</v>
@@ -14493,7 +14795,7 @@
         <v>856</v>
       </c>
       <c r="G362" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I362" t="s">
         <v>15</v>
@@ -14525,7 +14827,7 @@
         <v>859</v>
       </c>
       <c r="G363" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I363" t="s">
         <v>15</v>
@@ -14557,7 +14859,7 @@
         <v>862</v>
       </c>
       <c r="G364" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I364" t="s">
         <v>15</v>
@@ -14580,7 +14882,7 @@
         <v>864</v>
       </c>
       <c r="C365" t="s">
-        <v>827</v>
+        <v>216</v>
       </c>
       <c r="E365" t="s">
         <v>15</v>
@@ -14589,13 +14891,13 @@
         <v>865</v>
       </c>
       <c r="G365" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
       <c r="I365" t="s">
         <v>15</v>
       </c>
       <c r="J365" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K365" t="s">
         <v>864</v>
@@ -14612,7 +14914,7 @@
         <v>867</v>
       </c>
       <c r="C366" t="s">
-        <v>216</v>
+        <v>827</v>
       </c>
       <c r="E366" t="s">
         <v>15</v>
@@ -14621,13 +14923,13 @@
         <v>868</v>
       </c>
       <c r="G366" t="s">
-        <v>205</v>
+        <v>502</v>
       </c>
       <c r="I366" t="s">
         <v>15</v>
       </c>
       <c r="J366" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K366" t="s">
         <v>867</v>
@@ -14653,7 +14955,7 @@
         <v>871</v>
       </c>
       <c r="G367" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I367" t="s">
         <v>15</v>
@@ -14665,6 +14967,1388 @@
         <v>870</v>
       </c>
       <c r="L367" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>872</v>
+      </c>
+      <c r="B368" t="s">
+        <v>873</v>
+      </c>
+      <c r="C368" t="s">
+        <v>220</v>
+      </c>
+      <c r="E368" t="s">
+        <v>15</v>
+      </c>
+      <c r="F368" t="s">
+        <v>874</v>
+      </c>
+      <c r="G368" t="s">
+        <v>207</v>
+      </c>
+      <c r="I368" t="s">
+        <v>15</v>
+      </c>
+      <c r="J368" t="s">
+        <v>24</v>
+      </c>
+      <c r="K368" t="s">
+        <v>873</v>
+      </c>
+      <c r="L368" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>875</v>
+      </c>
+      <c r="B369" t="s">
+        <v>876</v>
+      </c>
+      <c r="C369" t="s">
+        <v>827</v>
+      </c>
+      <c r="E369" t="s">
+        <v>15</v>
+      </c>
+      <c r="F369" t="s">
+        <v>877</v>
+      </c>
+      <c r="G369" t="s">
+        <v>506</v>
+      </c>
+      <c r="I369" t="s">
+        <v>15</v>
+      </c>
+      <c r="J369" t="s">
+        <v>18</v>
+      </c>
+      <c r="K369" t="s">
+        <v>876</v>
+      </c>
+      <c r="L369" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>878</v>
+      </c>
+      <c r="B370" t="s">
+        <v>879</v>
+      </c>
+      <c r="C370" t="s">
+        <v>827</v>
+      </c>
+      <c r="E370" t="s">
+        <v>15</v>
+      </c>
+      <c r="F370" t="s">
+        <v>880</v>
+      </c>
+      <c r="G370" t="s">
+        <v>508</v>
+      </c>
+      <c r="I370" t="s">
+        <v>15</v>
+      </c>
+      <c r="J370" t="s">
+        <v>18</v>
+      </c>
+      <c r="K370" t="s">
+        <v>879</v>
+      </c>
+      <c r="L370" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>881</v>
+      </c>
+      <c r="B371" t="s">
+        <v>882</v>
+      </c>
+      <c r="C371" t="s">
+        <v>827</v>
+      </c>
+      <c r="E371" t="s">
+        <v>15</v>
+      </c>
+      <c r="F371" t="s">
+        <v>883</v>
+      </c>
+      <c r="G371" t="s">
+        <v>510</v>
+      </c>
+      <c r="I371" t="s">
+        <v>15</v>
+      </c>
+      <c r="J371" t="s">
+        <v>18</v>
+      </c>
+      <c r="K371" t="s">
+        <v>882</v>
+      </c>
+      <c r="L371" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>884</v>
+      </c>
+      <c r="B372" t="s">
+        <v>885</v>
+      </c>
+      <c r="C372" t="s">
+        <v>236</v>
+      </c>
+      <c r="E372" t="s">
+        <v>15</v>
+      </c>
+      <c r="F372" t="s">
+        <v>886</v>
+      </c>
+      <c r="G372" t="s">
+        <v>512</v>
+      </c>
+      <c r="H372" t="s">
+        <v>887</v>
+      </c>
+      <c r="I372" t="s">
+        <v>15</v>
+      </c>
+      <c r="J372" t="s">
+        <v>18</v>
+      </c>
+      <c r="K372" t="s">
+        <v>885</v>
+      </c>
+      <c r="L372" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>888</v>
+      </c>
+      <c r="B373" t="s">
+        <v>889</v>
+      </c>
+      <c r="C373" t="s">
+        <v>827</v>
+      </c>
+      <c r="E373" t="s">
+        <v>15</v>
+      </c>
+      <c r="F373" t="s">
+        <v>890</v>
+      </c>
+      <c r="G373" t="s">
+        <v>514</v>
+      </c>
+      <c r="I373" t="s">
+        <v>15</v>
+      </c>
+      <c r="J373" t="s">
+        <v>18</v>
+      </c>
+      <c r="K373" t="s">
+        <v>889</v>
+      </c>
+      <c r="L373" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>891</v>
+      </c>
+      <c r="B374" t="s">
+        <v>892</v>
+      </c>
+      <c r="C374" t="s">
+        <v>236</v>
+      </c>
+      <c r="E374" t="s">
+        <v>15</v>
+      </c>
+      <c r="F374" t="s">
+        <v>893</v>
+      </c>
+      <c r="G374" t="s">
+        <v>516</v>
+      </c>
+      <c r="H374" t="s">
+        <v>894</v>
+      </c>
+      <c r="I374" t="s">
+        <v>15</v>
+      </c>
+      <c r="J374" t="s">
+        <v>18</v>
+      </c>
+      <c r="K374" t="s">
+        <v>892</v>
+      </c>
+      <c r="L374" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>895</v>
+      </c>
+      <c r="B375" t="s">
+        <v>896</v>
+      </c>
+      <c r="C375" t="s">
+        <v>236</v>
+      </c>
+      <c r="E375" t="s">
+        <v>15</v>
+      </c>
+      <c r="F375" t="s">
+        <v>897</v>
+      </c>
+      <c r="G375" t="s">
+        <v>518</v>
+      </c>
+      <c r="I375" t="s">
+        <v>15</v>
+      </c>
+      <c r="J375" t="s">
+        <v>18</v>
+      </c>
+      <c r="K375" t="s">
+        <v>896</v>
+      </c>
+      <c r="L375" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>898</v>
+      </c>
+      <c r="B376" t="s">
+        <v>896</v>
+      </c>
+      <c r="C376" t="s">
+        <v>14</v>
+      </c>
+      <c r="E376" t="s">
+        <v>15</v>
+      </c>
+      <c r="F376" t="s">
+        <v>899</v>
+      </c>
+      <c r="G376" t="s">
+        <v>520</v>
+      </c>
+      <c r="I376" t="s">
+        <v>15</v>
+      </c>
+      <c r="J376" t="s">
+        <v>18</v>
+      </c>
+      <c r="K376" t="s">
+        <v>896</v>
+      </c>
+      <c r="L376" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>900</v>
+      </c>
+      <c r="B377" t="s">
+        <v>896</v>
+      </c>
+      <c r="C377" t="s">
+        <v>14</v>
+      </c>
+      <c r="E377" t="s">
+        <v>15</v>
+      </c>
+      <c r="F377" t="s">
+        <v>901</v>
+      </c>
+      <c r="G377" t="s">
+        <v>522</v>
+      </c>
+      <c r="I377" t="s">
+        <v>15</v>
+      </c>
+      <c r="J377" t="s">
+        <v>18</v>
+      </c>
+      <c r="K377" t="s">
+        <v>896</v>
+      </c>
+      <c r="L377" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>902</v>
+      </c>
+      <c r="B378" t="s">
+        <v>896</v>
+      </c>
+      <c r="C378" t="s">
+        <v>14</v>
+      </c>
+      <c r="E378" t="s">
+        <v>15</v>
+      </c>
+      <c r="F378" t="s">
+        <v>903</v>
+      </c>
+      <c r="G378" t="s">
+        <v>524</v>
+      </c>
+      <c r="I378" t="s">
+        <v>15</v>
+      </c>
+      <c r="J378" t="s">
+        <v>18</v>
+      </c>
+      <c r="K378" t="s">
+        <v>896</v>
+      </c>
+      <c r="L378" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>904</v>
+      </c>
+      <c r="B379" t="s">
+        <v>896</v>
+      </c>
+      <c r="C379" t="s">
+        <v>14</v>
+      </c>
+      <c r="E379" t="s">
+        <v>15</v>
+      </c>
+      <c r="F379" t="s">
+        <v>905</v>
+      </c>
+      <c r="G379" t="s">
+        <v>526</v>
+      </c>
+      <c r="I379" t="s">
+        <v>15</v>
+      </c>
+      <c r="J379" t="s">
+        <v>18</v>
+      </c>
+      <c r="K379" t="s">
+        <v>896</v>
+      </c>
+      <c r="L379" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>906</v>
+      </c>
+      <c r="B380" t="s">
+        <v>896</v>
+      </c>
+      <c r="C380" t="s">
+        <v>14</v>
+      </c>
+      <c r="E380" t="s">
+        <v>15</v>
+      </c>
+      <c r="F380" t="s">
+        <v>907</v>
+      </c>
+      <c r="G380" t="s">
+        <v>528</v>
+      </c>
+      <c r="I380" t="s">
+        <v>15</v>
+      </c>
+      <c r="J380" t="s">
+        <v>18</v>
+      </c>
+      <c r="K380" t="s">
+        <v>896</v>
+      </c>
+      <c r="L380" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>908</v>
+      </c>
+      <c r="B381" t="s">
+        <v>896</v>
+      </c>
+      <c r="C381" t="s">
+        <v>14</v>
+      </c>
+      <c r="E381" t="s">
+        <v>15</v>
+      </c>
+      <c r="F381" t="s">
+        <v>909</v>
+      </c>
+      <c r="G381" t="s">
+        <v>530</v>
+      </c>
+      <c r="I381" t="s">
+        <v>15</v>
+      </c>
+      <c r="J381" t="s">
+        <v>18</v>
+      </c>
+      <c r="K381" t="s">
+        <v>896</v>
+      </c>
+      <c r="L381" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>910</v>
+      </c>
+      <c r="B382" t="s">
+        <v>896</v>
+      </c>
+      <c r="C382" t="s">
+        <v>14</v>
+      </c>
+      <c r="E382" t="s">
+        <v>15</v>
+      </c>
+      <c r="F382" t="s">
+        <v>911</v>
+      </c>
+      <c r="G382" t="s">
+        <v>532</v>
+      </c>
+      <c r="I382" t="s">
+        <v>15</v>
+      </c>
+      <c r="J382" t="s">
+        <v>18</v>
+      </c>
+      <c r="K382" t="s">
+        <v>896</v>
+      </c>
+      <c r="L382" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>912</v>
+      </c>
+      <c r="B383" t="s">
+        <v>896</v>
+      </c>
+      <c r="C383" t="s">
+        <v>14</v>
+      </c>
+      <c r="E383" t="s">
+        <v>15</v>
+      </c>
+      <c r="F383" t="s">
+        <v>913</v>
+      </c>
+      <c r="G383" t="s">
+        <v>914</v>
+      </c>
+      <c r="I383" t="s">
+        <v>15</v>
+      </c>
+      <c r="J383" t="s">
+        <v>18</v>
+      </c>
+      <c r="K383" t="s">
+        <v>896</v>
+      </c>
+      <c r="L383" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>915</v>
+      </c>
+      <c r="B384" t="s">
+        <v>896</v>
+      </c>
+      <c r="C384" t="s">
+        <v>14</v>
+      </c>
+      <c r="E384" t="s">
+        <v>15</v>
+      </c>
+      <c r="F384" t="s">
+        <v>32</v>
+      </c>
+      <c r="G384" t="s">
+        <v>534</v>
+      </c>
+      <c r="I384" t="s">
+        <v>15</v>
+      </c>
+      <c r="J384" t="s">
+        <v>18</v>
+      </c>
+      <c r="K384" t="s">
+        <v>896</v>
+      </c>
+      <c r="L384" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>916</v>
+      </c>
+      <c r="B385" t="s">
+        <v>896</v>
+      </c>
+      <c r="C385" t="s">
+        <v>14</v>
+      </c>
+      <c r="E385" t="s">
+        <v>15</v>
+      </c>
+      <c r="F385" t="s">
+        <v>917</v>
+      </c>
+      <c r="G385" t="s">
+        <v>536</v>
+      </c>
+      <c r="I385" t="s">
+        <v>15</v>
+      </c>
+      <c r="J385" t="s">
+        <v>18</v>
+      </c>
+      <c r="K385" t="s">
+        <v>896</v>
+      </c>
+      <c r="L385" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>918</v>
+      </c>
+      <c r="B386" t="s">
+        <v>896</v>
+      </c>
+      <c r="C386" t="s">
+        <v>14</v>
+      </c>
+      <c r="E386" t="s">
+        <v>15</v>
+      </c>
+      <c r="F386" t="s">
+        <v>919</v>
+      </c>
+      <c r="G386" t="s">
+        <v>538</v>
+      </c>
+      <c r="I386" t="s">
+        <v>15</v>
+      </c>
+      <c r="J386" t="s">
+        <v>18</v>
+      </c>
+      <c r="K386" t="s">
+        <v>896</v>
+      </c>
+      <c r="L386" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>920</v>
+      </c>
+      <c r="B387" t="s">
+        <v>896</v>
+      </c>
+      <c r="C387" t="s">
+        <v>14</v>
+      </c>
+      <c r="E387" t="s">
+        <v>15</v>
+      </c>
+      <c r="F387" t="s">
+        <v>921</v>
+      </c>
+      <c r="G387" t="s">
+        <v>540</v>
+      </c>
+      <c r="I387" t="s">
+        <v>15</v>
+      </c>
+      <c r="J387" t="s">
+        <v>18</v>
+      </c>
+      <c r="K387" t="s">
+        <v>896</v>
+      </c>
+      <c r="L387" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>922</v>
+      </c>
+      <c r="B388" t="s">
+        <v>896</v>
+      </c>
+      <c r="C388" t="s">
+        <v>14</v>
+      </c>
+      <c r="E388" t="s">
+        <v>15</v>
+      </c>
+      <c r="F388" t="s">
+        <v>923</v>
+      </c>
+      <c r="G388" t="s">
+        <v>542</v>
+      </c>
+      <c r="I388" t="s">
+        <v>15</v>
+      </c>
+      <c r="J388" t="s">
+        <v>18</v>
+      </c>
+      <c r="K388" t="s">
+        <v>896</v>
+      </c>
+      <c r="L388" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>924</v>
+      </c>
+      <c r="B389" t="s">
+        <v>896</v>
+      </c>
+      <c r="C389" t="s">
+        <v>14</v>
+      </c>
+      <c r="E389" t="s">
+        <v>15</v>
+      </c>
+      <c r="F389" t="s">
+        <v>925</v>
+      </c>
+      <c r="G389" t="s">
+        <v>544</v>
+      </c>
+      <c r="I389" t="s">
+        <v>15</v>
+      </c>
+      <c r="J389" t="s">
+        <v>18</v>
+      </c>
+      <c r="K389" t="s">
+        <v>896</v>
+      </c>
+      <c r="L389" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>926</v>
+      </c>
+      <c r="B390" t="s">
+        <v>896</v>
+      </c>
+      <c r="C390" t="s">
+        <v>14</v>
+      </c>
+      <c r="E390" t="s">
+        <v>15</v>
+      </c>
+      <c r="F390" t="s">
+        <v>927</v>
+      </c>
+      <c r="G390" t="s">
+        <v>546</v>
+      </c>
+      <c r="I390" t="s">
+        <v>15</v>
+      </c>
+      <c r="J390" t="s">
+        <v>18</v>
+      </c>
+      <c r="K390" t="s">
+        <v>896</v>
+      </c>
+      <c r="L390" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>928</v>
+      </c>
+      <c r="B391" t="s">
+        <v>896</v>
+      </c>
+      <c r="C391" t="s">
+        <v>14</v>
+      </c>
+      <c r="E391" t="s">
+        <v>15</v>
+      </c>
+      <c r="F391" t="s">
+        <v>929</v>
+      </c>
+      <c r="G391" t="s">
+        <v>548</v>
+      </c>
+      <c r="I391" t="s">
+        <v>15</v>
+      </c>
+      <c r="J391" t="s">
+        <v>18</v>
+      </c>
+      <c r="K391" t="s">
+        <v>896</v>
+      </c>
+      <c r="L391" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>930</v>
+      </c>
+      <c r="B392" t="s">
+        <v>896</v>
+      </c>
+      <c r="C392" t="s">
+        <v>14</v>
+      </c>
+      <c r="E392" t="s">
+        <v>15</v>
+      </c>
+      <c r="F392" t="s">
+        <v>931</v>
+      </c>
+      <c r="G392" t="s">
+        <v>550</v>
+      </c>
+      <c r="I392" t="s">
+        <v>15</v>
+      </c>
+      <c r="J392" t="s">
+        <v>18</v>
+      </c>
+      <c r="K392" t="s">
+        <v>896</v>
+      </c>
+      <c r="L392" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>932</v>
+      </c>
+      <c r="B393" t="s">
+        <v>896</v>
+      </c>
+      <c r="C393" t="s">
+        <v>14</v>
+      </c>
+      <c r="E393" t="s">
+        <v>15</v>
+      </c>
+      <c r="F393" t="s">
+        <v>933</v>
+      </c>
+      <c r="G393" t="s">
+        <v>552</v>
+      </c>
+      <c r="I393" t="s">
+        <v>15</v>
+      </c>
+      <c r="J393" t="s">
+        <v>18</v>
+      </c>
+      <c r="K393" t="s">
+        <v>896</v>
+      </c>
+      <c r="L393" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>934</v>
+      </c>
+      <c r="B394" t="s">
+        <v>896</v>
+      </c>
+      <c r="C394" t="s">
+        <v>14</v>
+      </c>
+      <c r="E394" t="s">
+        <v>15</v>
+      </c>
+      <c r="F394" t="s">
+        <v>935</v>
+      </c>
+      <c r="G394" t="s">
+        <v>554</v>
+      </c>
+      <c r="I394" t="s">
+        <v>15</v>
+      </c>
+      <c r="J394" t="s">
+        <v>18</v>
+      </c>
+      <c r="K394" t="s">
+        <v>896</v>
+      </c>
+      <c r="L394" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>936</v>
+      </c>
+      <c r="B395" t="s">
+        <v>896</v>
+      </c>
+      <c r="C395" t="s">
+        <v>14</v>
+      </c>
+      <c r="E395" t="s">
+        <v>15</v>
+      </c>
+      <c r="F395" t="s">
+        <v>937</v>
+      </c>
+      <c r="G395" t="s">
+        <v>556</v>
+      </c>
+      <c r="I395" t="s">
+        <v>15</v>
+      </c>
+      <c r="J395" t="s">
+        <v>18</v>
+      </c>
+      <c r="K395" t="s">
+        <v>896</v>
+      </c>
+      <c r="L395" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>938</v>
+      </c>
+      <c r="B396" t="s">
+        <v>896</v>
+      </c>
+      <c r="C396" t="s">
+        <v>14</v>
+      </c>
+      <c r="E396" t="s">
+        <v>15</v>
+      </c>
+      <c r="F396" t="s">
+        <v>35</v>
+      </c>
+      <c r="G396" t="s">
+        <v>558</v>
+      </c>
+      <c r="I396" t="s">
+        <v>15</v>
+      </c>
+      <c r="J396" t="s">
+        <v>18</v>
+      </c>
+      <c r="K396" t="s">
+        <v>896</v>
+      </c>
+      <c r="L396" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>939</v>
+      </c>
+      <c r="B397" t="s">
+        <v>896</v>
+      </c>
+      <c r="C397" t="s">
+        <v>14</v>
+      </c>
+      <c r="E397" t="s">
+        <v>15</v>
+      </c>
+      <c r="F397" t="s">
+        <v>940</v>
+      </c>
+      <c r="G397" t="s">
+        <v>560</v>
+      </c>
+      <c r="I397" t="s">
+        <v>15</v>
+      </c>
+      <c r="J397" t="s">
+        <v>18</v>
+      </c>
+      <c r="K397" t="s">
+        <v>896</v>
+      </c>
+      <c r="L397" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>941</v>
+      </c>
+      <c r="B398" t="s">
+        <v>896</v>
+      </c>
+      <c r="C398" t="s">
+        <v>14</v>
+      </c>
+      <c r="E398" t="s">
+        <v>15</v>
+      </c>
+      <c r="F398" t="s">
+        <v>942</v>
+      </c>
+      <c r="G398" t="s">
+        <v>562</v>
+      </c>
+      <c r="I398" t="s">
+        <v>15</v>
+      </c>
+      <c r="J398" t="s">
+        <v>18</v>
+      </c>
+      <c r="K398" t="s">
+        <v>896</v>
+      </c>
+      <c r="L398" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>943</v>
+      </c>
+      <c r="B399" t="s">
+        <v>896</v>
+      </c>
+      <c r="C399" t="s">
+        <v>14</v>
+      </c>
+      <c r="E399" t="s">
+        <v>15</v>
+      </c>
+      <c r="F399" t="s">
+        <v>944</v>
+      </c>
+      <c r="G399" t="s">
+        <v>564</v>
+      </c>
+      <c r="I399" t="s">
+        <v>15</v>
+      </c>
+      <c r="J399" t="s">
+        <v>18</v>
+      </c>
+      <c r="K399" t="s">
+        <v>896</v>
+      </c>
+      <c r="L399" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>945</v>
+      </c>
+      <c r="B400" t="s">
+        <v>896</v>
+      </c>
+      <c r="C400" t="s">
+        <v>14</v>
+      </c>
+      <c r="E400" t="s">
+        <v>15</v>
+      </c>
+      <c r="F400" t="s">
+        <v>946</v>
+      </c>
+      <c r="G400" t="s">
+        <v>566</v>
+      </c>
+      <c r="I400" t="s">
+        <v>15</v>
+      </c>
+      <c r="J400" t="s">
+        <v>18</v>
+      </c>
+      <c r="K400" t="s">
+        <v>896</v>
+      </c>
+      <c r="L400" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>947</v>
+      </c>
+      <c r="B401" t="s">
+        <v>896</v>
+      </c>
+      <c r="C401" t="s">
+        <v>14</v>
+      </c>
+      <c r="E401" t="s">
+        <v>15</v>
+      </c>
+      <c r="F401" t="s">
+        <v>948</v>
+      </c>
+      <c r="G401" t="s">
+        <v>568</v>
+      </c>
+      <c r="I401" t="s">
+        <v>15</v>
+      </c>
+      <c r="J401" t="s">
+        <v>18</v>
+      </c>
+      <c r="K401" t="s">
+        <v>896</v>
+      </c>
+      <c r="L401" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>949</v>
+      </c>
+      <c r="B402" t="s">
+        <v>896</v>
+      </c>
+      <c r="C402" t="s">
+        <v>14</v>
+      </c>
+      <c r="E402" t="s">
+        <v>15</v>
+      </c>
+      <c r="F402" t="s">
+        <v>950</v>
+      </c>
+      <c r="G402" t="s">
+        <v>570</v>
+      </c>
+      <c r="I402" t="s">
+        <v>15</v>
+      </c>
+      <c r="J402" t="s">
+        <v>18</v>
+      </c>
+      <c r="K402" t="s">
+        <v>896</v>
+      </c>
+      <c r="L402" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>951</v>
+      </c>
+      <c r="B403" t="s">
+        <v>896</v>
+      </c>
+      <c r="C403" t="s">
+        <v>14</v>
+      </c>
+      <c r="E403" t="s">
+        <v>15</v>
+      </c>
+      <c r="F403" t="s">
+        <v>952</v>
+      </c>
+      <c r="G403" t="s">
+        <v>571</v>
+      </c>
+      <c r="I403" t="s">
+        <v>15</v>
+      </c>
+      <c r="J403" t="s">
+        <v>18</v>
+      </c>
+      <c r="K403" t="s">
+        <v>896</v>
+      </c>
+      <c r="L403" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>953</v>
+      </c>
+      <c r="B404" t="s">
+        <v>896</v>
+      </c>
+      <c r="C404" t="s">
+        <v>14</v>
+      </c>
+      <c r="E404" t="s">
+        <v>15</v>
+      </c>
+      <c r="F404" t="s">
+        <v>954</v>
+      </c>
+      <c r="G404" t="s">
+        <v>573</v>
+      </c>
+      <c r="I404" t="s">
+        <v>15</v>
+      </c>
+      <c r="J404" t="s">
+        <v>18</v>
+      </c>
+      <c r="K404" t="s">
+        <v>896</v>
+      </c>
+      <c r="L404" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>955</v>
+      </c>
+      <c r="B405" t="s">
+        <v>896</v>
+      </c>
+      <c r="C405" t="s">
+        <v>14</v>
+      </c>
+      <c r="E405" t="s">
+        <v>15</v>
+      </c>
+      <c r="F405" t="s">
+        <v>956</v>
+      </c>
+      <c r="G405" t="s">
+        <v>575</v>
+      </c>
+      <c r="I405" t="s">
+        <v>15</v>
+      </c>
+      <c r="J405" t="s">
+        <v>18</v>
+      </c>
+      <c r="K405" t="s">
+        <v>896</v>
+      </c>
+      <c r="L405" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>957</v>
+      </c>
+      <c r="B406" t="s">
+        <v>896</v>
+      </c>
+      <c r="C406" t="s">
+        <v>14</v>
+      </c>
+      <c r="E406" t="s">
+        <v>15</v>
+      </c>
+      <c r="F406" t="s">
+        <v>958</v>
+      </c>
+      <c r="G406" t="s">
+        <v>577</v>
+      </c>
+      <c r="I406" t="s">
+        <v>15</v>
+      </c>
+      <c r="J406" t="s">
+        <v>18</v>
+      </c>
+      <c r="K406" t="s">
+        <v>896</v>
+      </c>
+      <c r="L406" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>959</v>
+      </c>
+      <c r="B407" t="s">
+        <v>960</v>
+      </c>
+      <c r="C407" t="s">
+        <v>14</v>
+      </c>
+      <c r="E407" t="s">
+        <v>15</v>
+      </c>
+      <c r="F407" t="s">
+        <v>961</v>
+      </c>
+      <c r="G407" t="s">
+        <v>579</v>
+      </c>
+      <c r="I407" t="s">
+        <v>15</v>
+      </c>
+      <c r="J407" t="s">
+        <v>18</v>
+      </c>
+      <c r="K407" t="s">
+        <v>960</v>
+      </c>
+      <c r="L407" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>962</v>
+      </c>
+      <c r="B408" t="s">
+        <v>963</v>
+      </c>
+      <c r="C408" t="s">
+        <v>14</v>
+      </c>
+      <c r="E408" t="s">
+        <v>15</v>
+      </c>
+      <c r="F408" t="s">
+        <v>964</v>
+      </c>
+      <c r="G408" t="s">
+        <v>581</v>
+      </c>
+      <c r="I408" t="s">
+        <v>15</v>
+      </c>
+      <c r="J408" t="s">
+        <v>18</v>
+      </c>
+      <c r="K408" t="s">
+        <v>963</v>
+      </c>
+      <c r="L408" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>965</v>
+      </c>
+      <c r="B409" t="s">
+        <v>966</v>
+      </c>
+      <c r="C409" t="s">
+        <v>827</v>
+      </c>
+      <c r="E409" t="s">
+        <v>15</v>
+      </c>
+      <c r="F409" t="s">
+        <v>967</v>
+      </c>
+      <c r="G409" t="s">
+        <v>591</v>
+      </c>
+      <c r="I409" t="s">
+        <v>15</v>
+      </c>
+      <c r="J409" t="s">
+        <v>18</v>
+      </c>
+      <c r="K409" t="s">
+        <v>966</v>
+      </c>
+      <c r="L409" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>968</v>
+      </c>
+      <c r="B410" t="s">
+        <v>969</v>
+      </c>
+      <c r="C410" t="s">
+        <v>827</v>
+      </c>
+      <c r="E410" t="s">
+        <v>15</v>
+      </c>
+      <c r="F410" t="s">
+        <v>970</v>
+      </c>
+      <c r="G410" t="s">
+        <v>593</v>
+      </c>
+      <c r="I410" t="s">
+        <v>15</v>
+      </c>
+      <c r="J410" t="s">
+        <v>18</v>
+      </c>
+      <c r="K410" t="s">
+        <v>969</v>
+      </c>
+      <c r="L410" t="s">
         <v>17</v>
       </c>
     </row>
